--- a/public/storage/template/签到导入模板.xlsx
+++ b/public/storage/template/签到导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpstudy_pro\WWW\care\public\storage\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18CB56A9-1438-4857-AADB-CFB731B773D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6DCEB3-3507-45F5-9518-2498BDB932A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{1294945D-FF09-43AF-9DCA-46F33F000211}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,17 +68,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试添加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-08-13 10:55:40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd;@"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,7 +122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -442,13 +442,13 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14.08203125" customWidth="1"/>
-    <col min="3" max="3" width="14.9140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -477,16 +477,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>15676543234</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45516</v>
+        <v>18513130164</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>8</v>

--- a/public/storage/template/签到导入模板.xlsx
+++ b/public/storage/template/签到导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\phpstudy_pro\WWW\care\public\storage\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D6DCEB3-3507-45F5-9518-2498BDB932A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940E42B2-E2B0-4D50-9216-9925AF0DC57F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{1294945D-FF09-43AF-9DCA-46F33F000211}"/>
   </bookViews>
@@ -72,7 +72,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-08-13 10:55:40</t>
+    <t>2024-08-21 12:55:40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -442,7 +443,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
